--- a/docs/assets/disciplinas/LOM3058.xlsx
+++ b/docs/assets/disciplinas/LOM3058.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar ao estudante conceitos gerais sobre a síntese de polímeros, destacando as principais vias usadas para a geração de materiais poliméricos na atualidade. Capacitar o estudante para relacionar a síntese com a estrutura, o comportamento e a utilização de polímeros.</t>
+    <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1033242 - Fábio Herbst Florenzano</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos: massa molar média e conceitos gerais sobre química de polímeros. Polímeros de condensação e de adição. Polimerização em cadeia. Polimerização em etapas. Métodos de Polimerização. Modificação e degradação de polímeros e seu retardo.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Fundamentos: massa molar média e conceitos gerais sobre química de polímeros. Polímeros de condensação e de adição: conceitos gerais. Polimerização em Etapas. Polimerização em cadeia: via radical, aniônica e catiônica. Polimerização via desativação reversível de radicais. Polimerização estéreo-específica: Ziegler-Natta e outras. Métodos de polimerização: batelada, solução, suspensão, emulsão e interfacial. Modificação de polímeros: reticulação e vulcanização; modificações em aromáticos, hidrólise e outras. Química da degradação de polímeros: processos gerais e métodos de controle.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,28 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas escritas envolvendo o conteúdo teórico ministrado em sala de aula.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas avaliações, sendo que a nota final corresponde à média aritmética das duas provas. Os alunos que apresentarem média igual ou superior a 5 estarão aprovados, enquanto que aqueles que tiverem média inferior a 3 estarão reprovados. Alunos com notas finais situadas no intervalo de 3 a 5 serão encaminhados à recuperação.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>O aluno será submetido a um programa de estudos destinado a rever o conteúdo abordado na disciplina. Ao final deste período será aplicada uma nova avaliação. A nota final do aluno será a média aritmética desta avaliação com a nota anteriormente obtida, estando aprovados os alunos que tiverem nota final igual ou superior a 5.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>G. ODIAN Principles of Polymerization, 3rd Edition, New York: Wiley-Interscience, 1991.
-F. W. Billmeyer. Textbook of Polymer Chemistry, 3rd edition, New York: Wiley-Interscience, 1984.
-C. E. Carraher. Introduction to Polymer Chemistry, 1st Edition, Boca Raton: Taylor and Francis, 2010.
-S. V. Canevarolo. Ciência dos Polímeros: um texto básico para Engenheiros e Tecnólogos, 2ª. edição, São Paulo: Artliber, 2006.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -675,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3058.xlsx
+++ b/docs/assets/disciplinas/LOM3058.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar ao estudante conceitos gerais sobre a síntese de polímeros, destacando as principais vias usadas para a geração de materiais poliméricos na atualidade. Capacitar o estudante para relacionar a síntese com a estrutura, o comportamento e a utilização de polímeros.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present the fundamental concepts of polymer synthesis, in particular, the main routes used nowadays. To make the students capable to relate the synthesis of the polymeric material with their structure, behavior, and use.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present the fundamental concepts of polymer synthesis, in particular, the main routes used nowadays. To make the students capable to relate the synthesis of the polymeric material with their structure, behavior, and use.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fundamentos: massa molar média e conceitos gerais sobre química de polímeros. Polímeros de condensação e de adição. Polimerização em cadeia. Polimerização em etapas. Métodos de Polimerização. Modificação e degradação de polímeros e seu retardo.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Fundamentos: massa molar média e conceitos gerais sobre química de polímeros. Polímeros de condensação e de adição: conceitos gerais. Polimerização em Etapas. Polimerização em cadeia: via radical, aniônica e catiônica. Polimerização via desativação reversível de radicais. Polimerização estéreo-específica: Ziegler-Natta e outras. Métodos de polimerização: batelada, solução, suspensão, emulsão e interfacial. Modificação de polímeros: reticulação e vulcanização; modificações em aromáticos, hidrólise e outras. Química da degradação de polímeros: processos gerais e métodos de controle.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,28 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas escritas envolvendo o conteúdo teórico ministrado em sala de aula.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas escritas envolvendo o conteúdo teórico ministrado em sala de aula.</t>
+    <t>Duas avaliações, sendo que a nota final corresponde à média aritmética das duas provas. Os alunos que apresentarem média igual ou superior a 5 estarão aprovados, enquanto que aqueles que tiverem média inferior a 3 estarão reprovados. Alunos com notas finais situadas no intervalo de 3 a 5 serão encaminhados à recuperação.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas avaliações, sendo que a nota final corresponde à média aritmética das duas provas. Os alunos que apresentarem média igual ou superior a 5 estarão aprovados, enquanto que aqueles que tiverem média inferior a 3 estarão reprovados. Alunos com notas finais situadas no intervalo de 3 a 5 serão encaminhados à recuperação.</t>
+    <t>O aluno será submetido a um programa de estudos destinado a rever o conteúdo abordado na disciplina. Ao final deste período será aplicada uma nova avaliação. A nota final do aluno será a média aritmética desta avaliação com a nota anteriormente obtida, estando aprovados os alunos que tiverem nota final igual ou superior a 5.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>O aluno será submetido a um programa de estudos destinado a rever o conteúdo abordado na disciplina. Ao final deste período será aplicada uma nova avaliação. A nota final do aluno será a média aritmética desta avaliação com a nota anteriormente obtida, estando aprovados os alunos que tiverem nota final igual ou superior a 5.</t>
+    <t>G. ODIAN Principles of Polymerization, 3rd Edition, New York: Wiley-Interscience, 1991.
+F. W. Billmeyer. Textbook of Polymer Chemistry, 3rd edition, New York: Wiley-Interscience, 1984.
+C. E. Carraher. Introduction to Polymer Chemistry, 1st Edition, Boca Raton: Taylor and Francis, 2010.
+S. V. Canevarolo. Ciência dos Polímeros: um texto básico para Engenheiros e Tecnólogos, 2ª. edição, São Paulo: Artliber, 2006.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +634,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +675,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
